--- a/biology/Médecine/Kir2.4/Kir2.4.xlsx
+++ b/biology/Médecine/Kir2.4/Kir2.4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Kir2.4 également connu sous le nom de canal potassique rectifiant entrant 14 est une protéine qui, chez l'homme, est codée par le gène KCNJ14[1] situé sur le chromosome 19 humain.
+Kir2.4 également connu sous le nom de canal potassique rectifiant entrant 14 est une protéine qui, chez l'homme, est codée par le gène KCNJ14 situé sur le chromosome 19 humain.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces canaux potassiques sont présents dans la plupart des cellules de mammifères où ils participent à une vaste gamme de réactions physiologiques. La protéine est une protéine membranaire intégrale de type canal potassique rectifiant entrant et joue probablement un rôle dans le contrôle de l'excitabilité des neurones moteurs. Deux variantes de transcription codant la même protéine ont été trouvées pour le gène KCNJ14[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces canaux potassiques sont présents dans la plupart des cellules de mammifères où ils participent à une vaste gamme de réactions physiologiques. La protéine est une protéine membranaire intégrale de type canal potassique rectifiant entrant et joue probablement un rôle dans le contrôle de l'excitabilité des neurones moteurs. Deux variantes de transcription codant la même protéine ont été trouvées pour le gène KCNJ14
 </t>
         </is>
       </c>
